--- a/w1d4 esercizi.xlsx
+++ b/w1d4 esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F87079F-5AE3-473A-954A-849EE49EFD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4C7E8-AF99-4D0D-BC94-3D242C894F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,17 @@
     <sheet name="Peso" sheetId="2" r:id="rId2"/>
     <sheet name="Snacks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -698,6 +707,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1123,6 +1139,7 @@
         <c:axId val="1721041376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1247,11 +1264,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1260,9 +1277,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Istogramma Preferenze</a:t>
+              <a:rPr lang="it-IT" b="1"/>
+              <a:t>ISTOGRAMMA</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" b="1" baseline="0"/>
+              <a:t> PREFERENZE</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1279,11 +1301,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1317,25 +1339,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent1"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1436,25 +1446,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1555,25 +1553,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1674,25 +1660,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1786,8 +1760,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="1601260640"/>
         <c:axId val="1601269376"/>
       </c:barChart>
@@ -1804,11 +1778,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1849,6 +1823,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1893,7 +1881,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2885,9 +2873,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2896,12 +2887,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>PREFERENZE A LINEE</a:t>
+              <a:t>PREFERENZE ITALIANE</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> 3D</a:t>
-            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2918,9 +2911,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2932,97 +2928,25 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:line3DChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Snacks!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Italia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="96000"/>
-                    <a:satMod val="100000"/>
-                    <a:lumMod val="104000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="78000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="100000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="25400" h="12700"/>
-            </a:sp3d>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Snacks!$A$2:$A$11</c:f>
@@ -3100,406 +3024,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-858F-4A14-AF38-6FCA737793F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Snacks!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Francia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:tint val="96000"/>
-                    <a:satMod val="100000"/>
-                    <a:lumMod val="104000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="78000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="100000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="25400" h="12700"/>
-            </a:sp3d>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Snacks!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Mars</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kit-Kat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Kinder Bueno</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Nutella</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Baiocchi</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Snickers</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Frutta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Verdura</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Girella</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Snacks!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-858F-4A14-AF38-6FCA737793F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Snacks!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Germania</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:tint val="96000"/>
-                    <a:satMod val="100000"/>
-                    <a:lumMod val="104000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="78000">
-                  <a:schemeClr val="accent3">
-                    <a:shade val="100000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="25400" h="12700"/>
-            </a:sp3d>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Snacks!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Mars</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kit-Kat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Kinder Bueno</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Nutella</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Baiocchi</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Snickers</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Frutta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Verdura</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Girella</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Snacks!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-858F-4A14-AF38-6FCA737793F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Snacks!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Spagna</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:tint val="96000"/>
-                    <a:satMod val="100000"/>
-                    <a:lumMod val="104000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="78000">
-                  <a:schemeClr val="accent4">
-                    <a:shade val="100000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="25400" h="12700"/>
-            </a:sp3d>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Snacks!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Mars</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kit-Kat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Kinder Bueno</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Nutella</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Baiocchi</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Snickers</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Frutta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Verdura</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Girella</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Snacks!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-858F-4A14-AF38-6FCA737793F1}"/>
+              <c16:uniqueId val="{00000000-BAFC-4C24-90FE-6F31A7AEABC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3511,26 +3038,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1596681664"/>
-        <c:axId val="1596675008"/>
-        <c:axId val="1797073728"/>
-      </c:line3DChart>
+        <c:gapWidth val="182"/>
+        <c:axId val="1225084911"/>
+        <c:axId val="1225085327"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1596681664"/>
+        <c:axId val="1225084911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3546,7 +3073,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3556,7 +3086,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1596675008"/>
+        <c:crossAx val="1225085327"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3564,17 +3094,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1596675008"/>
+        <c:axId val="1225085327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -3602,7 +3132,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3612,53 +3145,10 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1596681664"/>
+        <c:crossAx val="1225084911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="1797073728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1596675008"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3667,34 +3157,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3712,7 +3174,1036 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>PREFERENZE FRANCESI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Snacks!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kit-Kat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kinder Bueno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nutella</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baiocchi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Frutta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verdura</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Girella</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snacks!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-155B-44E5-8523-B61B1F6FB313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="984380975"/>
+        <c:axId val="984378063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="984380975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984378063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="984378063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="984380975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>PREFERENZE TEDESCHE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Snacks!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kit-Kat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kinder Bueno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nutella</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baiocchi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Frutta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verdura</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Girella</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snacks!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD7E-4D35-9E5C-8556D3ACDBE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1279866895"/>
+        <c:axId val="1279868143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1279866895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279868143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279868143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279866895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>PREFERENZE SPAGNOLE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Snacks!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kit-Kat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kinder Bueno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nutella</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baiocchi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Frutta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verdura</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Girella</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snacks!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18BC-43C0-A669-FE1418996276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1302948207"/>
+        <c:axId val="1302947791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1302948207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302947791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1302947791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302948207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3939,6 +4430,24 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
@@ -4976,7 +5485,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4987,7 +5496,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5000,11 +5509,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5017,7 +5526,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5033,7 +5542,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5077,70 +5586,32 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -5152,29 +5623,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5196,13 +5671,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5217,15 +5694,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5236,10 +5713,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5255,14 +5732,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5274,24 +5751,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -5300,16 +5784,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5318,10 +5803,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5329,24 +5833,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5367,7 +5853,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5375,7 +5861,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5395,10 +5881,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5415,11 +5901,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5428,13 +5914,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5464,8 +5951,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5488,8 +5975,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6013,27 +6506,33 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="308">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6048,7 +6547,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6056,7 +6555,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6064,14 +6563,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -6080,8 +6582,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -6104,35 +6607,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6141,32 +6644,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6182,16 +6686,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6201,22 +6710,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6225,17 +6735,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6244,13 +6754,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6262,20 +6773,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6289,16 +6806,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6307,17 +6825,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6326,16 +6844,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6344,24 +6863,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6369,19 +6891,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6389,17 +6903,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6408,9 +6922,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6419,14 +6936,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6435,7 +6952,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -6444,19 +6964,525 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6465,7 +7491,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -6474,8 +7503,1024 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6568,8 +8613,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -6602,15 +8647,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6638,23 +8683,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafico 5">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC8150B-9BD5-408A-B2E4-D5FCC1BDA275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC47391-A9B9-4992-9004-1E9CB99FF0FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6667,6 +8712,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DCD19C-87F6-40DE-B0E0-5AF4D7EA56B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A69916-0E38-4595-94B1-8C820D8BD202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72060B-5446-4B85-815C-622FEDE30EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7065,7 +9218,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7360,8 +9513,8 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
